--- a/database/Export/Tabelas Finais/POF 2007 TBL_3/Tabela3.xlsx
+++ b/database/Export/Tabelas Finais/POF 2007 TBL_3/Tabela3.xlsx
@@ -398,65 +398,65 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Isotônico e Energético</t>
+          <t>Bebida Adoçada</t>
         </is>
       </c>
       <c r="B3">
-        <v>146</v>
+        <v>7981</v>
       </c>
       <c r="C3">
-        <v>0.284844701108163</v>
+        <v>15.57085999687842</v>
       </c>
       <c r="D3">
-        <v>0.3639536333042503</v>
+        <v>19.89530100959741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bebida Adoçada</t>
+          <t>Bebida Adoçada a Base de Leite</t>
         </is>
       </c>
       <c r="B4">
-        <v>7981</v>
+        <v>10688</v>
       </c>
       <c r="C4">
-        <v>15.57085999687842</v>
+        <v>20.85219291400031</v>
       </c>
       <c r="D4">
-        <v>19.89530100959741</v>
+        <v>26.64340022435498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bebida Adoçada a Base de Leite</t>
+          <t>Café e Chá</t>
         </is>
       </c>
       <c r="B5">
-        <v>10688</v>
+        <v>16553</v>
       </c>
       <c r="C5">
-        <v>20.85219291400031</v>
+        <v>32.29475573591385</v>
       </c>
       <c r="D5">
-        <v>26.64340022435498</v>
+        <v>41.26386638414558</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Café e Chá</t>
+          <t>Isotônico e Energético</t>
         </is>
       </c>
       <c r="B6">
-        <v>16553</v>
+        <v>146</v>
       </c>
       <c r="C6">
-        <v>32.29475573591385</v>
+        <v>0.284844701108163</v>
       </c>
       <c r="D6">
-        <v>41.26386638414558</v>
+        <v>0.3639536333042503</v>
       </c>
     </row>
     <row r="7">
